--- a/unir/SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota.xlsx
+++ b/unir/SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,14 +358,1912 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>organismo_nombre</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>anyo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nombres</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Paterno</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Materno</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>tipo_calificacionp</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo cargo</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>remuneracionbruta_mensual</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>remuliquida_mensual</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Nombres2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRECOMPLETO</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRECOMPLETO2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FRANCISCO  JAVIER</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>VALLEJO</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MARTINEZ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ingeniero Ejecución Prevención Riesgos y Seguridad Industrial</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>4213576</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FRANCISCO JAVIER</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>FRANCISCO JAVIER VALLEJO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>FRANCISCO JAVIER VALLEJO MARTINEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FRANCISCO  JAVIER</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>VALLEJO</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MARTINEZ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ingeniero Ejecución Prevención Riesgos y Seguridad Industrial</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>4213576</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>FRANCISCO JAVIER</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>FRANCISCO JAVIER VALLEJO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>FRANCISCO JAVIER VALLEJO MARTINEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FRANCISCO  JAVIER</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VALLEJO</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MARTINEZ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ingeniero Ejecución Prevención Riesgos y Seguridad Industrial</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1375895</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>FRANCISCO JAVIER</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>FRANCISCO JAVIER VALLEJO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>FRANCISCO JAVIER VALLEJO MARTINEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>3843545</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mayo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>3843545</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Junio</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>3843545</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Julio</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>3843545</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Agosto</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>3843545</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>3843545</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>4881302</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>4881302</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>5145302</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>4507949</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>4507949</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>5418451</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>5418451</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mayo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>5418451</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Junio</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>5418451</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Julio</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ACUÑA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ROSALES</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1614687</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>GLADYS CRISTINA ACUNA ROSALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ORSOLA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>CARRASCO</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Profesor de Matemática y Computación</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ANALISTA DE PLANES Y PROGRAMAS</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>4318131</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE ORSOLA CARRASCO</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE ORSOLA CARRASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ORSOLA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>CARRASCO</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Profesor de Matemática y Computación</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ANALISTA DE PLANES Y PROGRAMAS</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>4318131</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE ORSOLA CARRASCO</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE ORSOLA CARRASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ORSOLA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>CARRASCO</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Profesor de Matemática y Computación</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>ANALISTA DE PLANES Y PROGRAMAS</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>4499768</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE ORSOLA CARRASCO</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE ORSOLA CARRASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ORSOLA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>CARRASCO</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Profesor de Matemática y Computación</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ANALISTA DE PLANES Y PROGRAMAS</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>4405775</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE ORSOLA CARRASCO</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE ORSOLA CARRASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>FARIAS</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>2024429</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN FARIAS PEREZ</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN FARIAS PEREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>FARIAS</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>3730341</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN FARIAS PEREZ</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN FARIAS PEREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ORSOLA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>CARRASCO</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Profesor de Matemática y Computación</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>ANALISTA DE PLANES Y PROGRAMAS</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>4405775</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE ORSOLA CARRASCO</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE ORSOLA CARRASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>FARIAS</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>3821459</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN FARIAS PEREZ</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN FARIAS PEREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ORSOLA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>CARRASCO</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Profesor de Matemática y Computación</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>ANALISTA DE PLANES Y PROGRAMAS</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>4503810</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE ORSOLA CARRASCO</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE ORSOLA CARRASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ORSOLA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>CARRASCO</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Profesor de Matemática y Computación</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>ANALISTA DE PLANES Y PROGRAMAS</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>4503810</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE ORSOLA CARRASCO</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>JESSICA ODETTE ORSOLA CARRASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>FARIAS</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>SECRETARIO(A) REGIONAL MINISTERIAL</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>3824371</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN FARIAS PEREZ</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>ROMINA BELEN FARIAS PEREZ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>